--- a/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
+++ b/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B7C7EB-7486-4304-B8EE-1B00C08C2192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -652,6 +653,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,20 +674,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,7 +1375,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1418,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1482,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1542,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1608,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1671,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1769,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1828,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1893,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1936,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2011,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2197,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2263,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2321,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2387,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2443,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2518,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2561,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2627,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2683,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2781,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2844,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2893,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2909,25 +2910,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2939,25 +2940,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2969,13 +2970,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2984,14 +2985,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3295,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3305,7 +3306,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3313,34 +3314,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3645" topLeftCell="A69" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="3648" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3352,16 +3353,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3370,18 +3371,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="59">
         <v>40787</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3392,16 +3393,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3409,7 +3410,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3422,24 +3423,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3483,7 +3484,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>54.75</v>
+        <v>57.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3493,12 +3494,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3520,7 +3521,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3540,7 +3541,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3560,7 +3561,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3606,7 +3607,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3626,7 +3627,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3646,7 +3647,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3666,7 +3667,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3686,7 +3687,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3706,7 +3707,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3726,7 +3727,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3746,7 +3747,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3770,7 +3771,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3788,7 +3789,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3808,7 +3809,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3828,7 +3829,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3868,7 +3869,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3888,7 +3889,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3908,7 +3909,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3928,7 +3929,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3972,7 +3973,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3992,7 +3993,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4040,7 +4041,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4058,7 +4059,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4102,7 +4103,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4168,7 +4169,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4188,7 +4189,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4208,7 +4209,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4252,7 +4253,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4272,7 +4273,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4292,7 +4293,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4316,7 +4317,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4334,7 +4335,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4354,7 +4355,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4374,7 +4375,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4394,7 +4395,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4414,7 +4415,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4434,7 +4435,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4454,7 +4455,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4474,7 +4475,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4494,7 +4495,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4514,7 +4515,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4534,7 +4535,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4554,7 +4555,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4578,7 +4579,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4596,7 +4597,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4616,7 +4617,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4636,7 +4637,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4682,7 +4683,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4702,7 +4703,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4722,7 +4723,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4742,7 +4743,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4762,7 +4763,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4782,7 +4783,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4802,7 +4803,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4822,7 +4823,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="51" t="s">
         <v>47</v>
       </c>
@@ -4866,7 +4867,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4886,7 +4887,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4906,7 +4907,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4932,39 +4933,49 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <f>EDATE(A78,1)</f>
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <f>EDATE(A79,1)</f>
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4980,7 +4991,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4996,7 +5007,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5012,7 +5023,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5028,7 +5039,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5044,7 +5055,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5060,7 +5071,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5076,7 +5087,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5092,7 +5103,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5108,7 +5119,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5124,7 +5135,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5140,7 +5151,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5156,7 +5167,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5172,7 +5183,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5188,7 +5199,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5204,7 +5215,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5220,7 +5231,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5236,7 +5247,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5252,7 +5263,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5268,7 +5279,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5284,7 +5295,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5300,7 +5311,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5316,7 +5327,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5332,7 +5343,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5348,7 +5359,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5364,7 +5375,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5380,7 +5391,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5396,7 +5407,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5412,7 +5423,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5428,7 +5439,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5444,7 +5455,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5460,7 +5471,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5476,7 +5487,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5492,7 +5503,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5508,7 +5519,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5524,7 +5535,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5540,7 +5551,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5556,7 +5567,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5572,7 +5583,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5588,7 +5599,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5604,7 +5615,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5620,7 +5631,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5636,7 +5647,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5652,7 +5663,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5668,7 +5679,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5684,7 +5695,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5700,7 +5711,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="15"/>
       <c r="C127" s="42"/>
@@ -5718,23 +5729,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5757,34 +5768,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3672" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5797,16 +5808,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5818,19 +5829,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="59">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>40787</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5842,19 +5853,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="str">
+      <c r="F4" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5862,7 +5873,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5875,24 +5886,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5927,7 +5938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5951,7 +5962,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -5973,7 +5984,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43221</v>
       </c>
@@ -5997,7 +6008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -6015,7 +6026,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43678</v>
       </c>
@@ -6039,7 +6050,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43770</v>
       </c>
@@ -6063,7 +6074,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -6081,7 +6092,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43862</v>
       </c>
@@ -6105,7 +6116,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6127,7 +6138,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -6149,7 +6160,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43891</v>
       </c>
@@ -6173,7 +6184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44075</v>
       </c>
@@ -6197,7 +6208,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44105</v>
       </c>
@@ -6221,7 +6232,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
@@ -6239,7 +6250,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44378</v>
       </c>
@@ -6263,7 +6274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44409</v>
       </c>
@@ -6287,7 +6298,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>46</v>
       </c>
@@ -6305,7 +6316,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44743</v>
       </c>
@@ -6329,7 +6340,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44774</v>
       </c>
@@ -6351,7 +6362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>64</v>
@@ -6371,7 +6382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44805</v>
       </c>
@@ -6395,7 +6406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -6417,7 +6428,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -6437,7 +6448,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44835</v>
       </c>
@@ -6461,7 +6472,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>47</v>
       </c>
@@ -6479,7 +6490,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44927</v>
       </c>
@@ -6503,7 +6514,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>45017</v>
       </c>
@@ -6527,7 +6538,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>45047</v>
       </c>
@@ -6551,7 +6562,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6567,7 +6578,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6583,7 +6594,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6599,7 +6610,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6615,7 +6626,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6631,7 +6642,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6647,7 +6658,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6663,7 +6674,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6679,7 +6690,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6695,7 +6706,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6711,7 +6722,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6727,7 +6738,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6743,7 +6754,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6759,7 +6770,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6775,7 +6786,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6791,7 +6802,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6807,7 +6818,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6823,7 +6834,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6839,7 +6850,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6855,7 +6866,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6871,7 +6882,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6887,7 +6898,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6903,7 +6914,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6919,7 +6930,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6935,7 +6946,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6951,7 +6962,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6967,7 +6978,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6983,7 +6994,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6999,7 +7010,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7015,7 +7026,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7031,7 +7042,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7047,7 +7058,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7063,7 +7074,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7079,7 +7090,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7095,7 +7106,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7111,7 +7122,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7127,7 +7138,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7143,7 +7154,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7159,7 +7170,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7175,7 +7186,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7191,7 +7202,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7207,7 +7218,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7223,7 +7234,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7239,7 +7250,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7255,7 +7266,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7271,7 +7282,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7287,7 +7298,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7303,7 +7314,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7319,7 +7330,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7335,7 +7346,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7351,7 +7362,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7367,7 +7378,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7383,7 +7394,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7399,7 +7410,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7415,7 +7426,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7431,7 +7442,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7447,7 +7458,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7463,7 +7474,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7479,7 +7490,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7495,7 +7506,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7511,7 +7522,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7527,7 +7538,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7543,7 +7554,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7559,7 +7570,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7575,7 +7586,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7591,7 +7602,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7607,7 +7618,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7623,7 +7634,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7639,7 +7650,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7655,7 +7666,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7671,7 +7682,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7687,7 +7698,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7703,7 +7714,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7719,7 +7730,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7735,7 +7746,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7751,7 +7762,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7767,7 +7778,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7783,7 +7794,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7799,7 +7810,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7815,7 +7826,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7831,7 +7842,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7847,7 +7858,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7863,7 +7874,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7879,7 +7890,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7895,7 +7906,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7911,7 +7922,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7927,7 +7938,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7943,7 +7954,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7959,7 +7970,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7975,7 +7986,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7991,7 +8002,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8007,7 +8018,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8023,7 +8034,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
       <c r="B129" s="15"/>
       <c r="C129" s="42"/>
@@ -8055,10 +8066,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8081,7 +8092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8089,21 +8100,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -8116,7 +8127,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8145,7 +8156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>19.957999999999998</v>
       </c>
@@ -8169,17 +8180,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8200,7 +8211,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8227,7 +8238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8253,7 +8264,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8279,7 +8290,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8305,7 +8316,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8331,7 +8342,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8357,7 +8368,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8383,7 +8394,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8409,7 +8420,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8429,7 +8440,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8449,7 +8460,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8469,7 +8480,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8490,7 +8501,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8511,7 +8522,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8532,7 +8543,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8553,7 +8564,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8574,7 +8585,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8595,7 +8606,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8616,7 +8627,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8637,7 +8648,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8658,7 +8669,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8679,7 +8690,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8700,7 +8711,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8721,7 +8732,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8742,7 +8753,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8763,7 +8774,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8784,7 +8795,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8805,7 +8816,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8826,7 +8837,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8847,7 +8858,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8868,7 +8879,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8889,7 +8900,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8898,7 +8909,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8907,7 +8918,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8916,7 +8927,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8925,7 +8936,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8934,7 +8945,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8943,7 +8954,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8952,7 +8963,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8961,7 +8972,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8970,7 +8981,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8979,7 +8990,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8988,7 +8999,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8997,7 +9008,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9006,7 +9017,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9015,7 +9026,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9024,7 +9035,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9033,7 +9044,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9042,7 +9053,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9051,7 +9062,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9060,7 +9071,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9069,7 +9080,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9078,7 +9089,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9087,7 +9098,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9096,7 +9107,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9105,7 +9116,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9114,7 +9125,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9123,7 +9134,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9132,7 +9143,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9141,7 +9152,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9150,7 +9161,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
+++ b/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B7C7EB-7486-4304-B8EE-1B00C08C2192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -258,11 +257,14 @@
   <si>
     <t>3/17,28/2023</t>
   </si>
+  <si>
+    <t>6/7-8/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -653,15 +655,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -674,11 +667,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1375,7 +1377,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1420,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1484,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1544,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1610,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1673,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1771,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1830,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1895,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1938,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2013,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2199,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2265,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2323,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2389,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2445,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2520,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2563,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2629,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2685,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,7 +2783,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2846,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2895,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2910,25 +2912,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2940,25 +2942,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2970,13 +2972,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2985,14 +2987,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3296,7 +3298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3306,7 +3308,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3314,34 +3316,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3648" topLeftCell="A69" activePane="bottomLeft"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="3645" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
       <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3353,16 +3355,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3371,18 +3373,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="56">
         <v>40787</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3393,16 +3395,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3410,7 +3412,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3423,24 +3425,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3499,7 +3501,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3521,7 +3523,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3541,7 +3543,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3561,7 +3563,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3607,7 +3609,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3627,7 +3629,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3647,7 +3649,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3667,7 +3669,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3687,7 +3689,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3707,7 +3709,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3727,7 +3729,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3747,7 +3749,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3771,7 +3773,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3789,7 +3791,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3809,7 +3811,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3829,7 +3831,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3849,7 +3851,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3869,7 +3871,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3889,7 +3891,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3909,7 +3911,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3929,7 +3931,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3973,7 +3975,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3993,7 +3995,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4041,7 +4043,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4059,7 +4061,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4103,7 +4105,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4149,7 +4151,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4169,7 +4171,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4189,7 +4191,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4209,7 +4211,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4233,7 +4235,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4253,7 +4255,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4273,7 +4275,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4293,7 +4295,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4317,7 +4319,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4335,7 +4337,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4355,7 +4357,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4375,7 +4377,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4395,7 +4397,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4415,7 +4417,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4435,7 +4437,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4495,7 +4497,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4515,7 +4517,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4535,7 +4537,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4555,7 +4557,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4579,7 +4581,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4597,7 +4599,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4617,7 +4619,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4637,7 +4639,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4663,7 +4665,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4683,7 +4685,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4703,7 +4705,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4723,7 +4725,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4743,7 +4745,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4763,7 +4765,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4783,7 +4785,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4803,7 +4805,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4823,7 +4825,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4849,7 +4851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="51" t="s">
         <v>47</v>
       </c>
@@ -4867,7 +4869,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4887,7 +4889,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4907,7 +4909,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4933,7 +4935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A78,1)</f>
         <v>45017</v>
@@ -4954,7 +4956,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>45047</v>
@@ -4975,7 +4977,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4991,7 +4993,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -5007,7 +5009,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5023,7 +5025,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5039,7 +5041,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5055,7 +5057,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5071,7 +5073,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5087,7 +5089,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5103,7 +5105,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5119,7 +5121,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5135,7 +5137,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5151,7 +5153,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5167,7 +5169,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5183,7 +5185,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5199,7 +5201,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5215,7 +5217,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5231,7 +5233,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5247,7 +5249,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5263,7 +5265,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5279,7 +5281,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5295,7 +5297,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5311,7 +5313,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5327,7 +5329,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5343,7 +5345,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5359,7 +5361,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5375,7 +5377,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5391,7 +5393,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5407,7 +5409,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5423,7 +5425,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5439,7 +5441,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5455,7 +5457,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5471,7 +5473,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5487,7 +5489,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5503,7 +5505,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5519,7 +5521,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5535,7 +5537,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5551,7 +5553,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5567,7 +5569,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5583,7 +5585,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5599,7 +5601,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5615,7 +5617,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5631,7 +5633,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5647,7 +5649,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5663,7 +5665,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5679,7 +5681,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5695,7 +5697,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5711,7 +5713,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="15"/>
       <c r="C127" s="42"/>
@@ -5729,23 +5731,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5768,34 +5770,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A28" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3675" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5808,16 +5810,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5829,19 +5831,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="56">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>40787</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5853,19 +5855,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="str">
+      <c r="F4" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5873,7 +5875,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5886,24 +5888,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5957,12 +5959,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -5984,7 +5986,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43221</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -6026,7 +6028,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43678</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43770</v>
       </c>
@@ -6074,7 +6076,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -6092,7 +6094,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43862</v>
       </c>
@@ -6116,7 +6118,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6138,7 +6140,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -6160,7 +6162,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43891</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44075</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44105</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
@@ -6250,7 +6252,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44378</v>
       </c>
@@ -6274,7 +6276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44409</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>46</v>
       </c>
@@ -6316,7 +6318,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44743</v>
       </c>
@@ -6340,7 +6342,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44774</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>64</v>
@@ -6382,7 +6384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44805</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -6428,7 +6430,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -6448,7 +6450,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44835</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>47</v>
       </c>
@@ -6490,7 +6492,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44927</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>45017</v>
       </c>
@@ -6538,7 +6540,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>45047</v>
       </c>
@@ -6562,9 +6564,13 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="20"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
@@ -6573,14 +6579,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <v>1</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K37" s="49">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
@@ -6589,12 +6601,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>2</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6610,7 +6626,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6626,7 +6642,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6642,7 +6658,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6658,7 +6674,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6674,7 +6690,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6690,7 +6706,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6706,7 +6722,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6722,7 +6738,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6738,7 +6754,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6754,7 +6770,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6770,7 +6786,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6786,7 +6802,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6802,7 +6818,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6818,7 +6834,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6834,7 +6850,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6850,7 +6866,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6866,7 +6882,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6882,7 +6898,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6898,7 +6914,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6914,7 +6930,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6930,7 +6946,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6946,7 +6962,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6962,7 +6978,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6978,7 +6994,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6994,7 +7010,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7010,7 +7026,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7026,7 +7042,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7042,7 +7058,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7058,7 +7074,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7074,7 +7090,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7090,7 +7106,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7106,7 +7122,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7122,7 +7138,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7138,7 +7154,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7154,7 +7170,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7170,7 +7186,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7186,7 +7202,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7202,7 +7218,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7218,7 +7234,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7234,7 +7250,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7250,7 +7266,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7266,7 +7282,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7282,7 +7298,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7298,7 +7314,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7314,7 +7330,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7330,7 +7346,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7346,7 +7362,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7362,7 +7378,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7378,7 +7394,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7394,7 +7410,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7410,7 +7426,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7426,7 +7442,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7442,7 +7458,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7458,7 +7474,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7474,7 +7490,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7490,7 +7506,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7506,7 +7522,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7522,7 +7538,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7538,7 +7554,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7554,7 +7570,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7570,7 +7586,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7586,7 +7602,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7602,7 +7618,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7618,7 +7634,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7634,7 +7650,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7650,7 +7666,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7666,7 +7682,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7682,7 +7698,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7698,7 +7714,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7714,7 +7730,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7730,7 +7746,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7746,7 +7762,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7762,7 +7778,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7778,7 +7794,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7794,7 +7810,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7810,7 +7826,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7826,7 +7842,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7842,7 +7858,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7858,7 +7874,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7874,7 +7890,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7890,7 +7906,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7906,7 +7922,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7922,7 +7938,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7938,7 +7954,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7954,7 +7970,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7970,7 +7986,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7986,7 +8002,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8002,7 +8018,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8018,7 +8034,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8034,7 +8050,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41"/>
       <c r="B129" s="15"/>
       <c r="C129" s="42"/>
@@ -8066,10 +8082,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8092,7 +8108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8100,21 +8116,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -8127,7 +8143,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8156,7 +8172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>19.957999999999998</v>
       </c>
@@ -8180,17 +8196,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8211,7 +8227,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8238,7 +8254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8264,7 +8280,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8290,7 +8306,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8316,7 +8332,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8342,7 +8358,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8368,7 +8384,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8394,7 +8410,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8420,7 +8436,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8440,7 +8456,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8460,7 +8476,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8480,7 +8496,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8501,7 +8517,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8522,7 +8538,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8543,7 +8559,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8564,7 +8580,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8585,7 +8601,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8606,7 +8622,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8627,7 +8643,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8648,7 +8664,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8669,7 +8685,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8690,7 +8706,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8711,7 +8727,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8732,7 +8748,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8753,7 +8769,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8774,7 +8790,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8795,7 +8811,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8816,7 +8832,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8837,7 +8853,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8858,7 +8874,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8879,7 +8895,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8900,7 +8916,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8909,7 +8925,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8918,7 +8934,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8927,7 +8943,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8936,7 +8952,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8945,7 +8961,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8954,7 +8970,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8963,7 +8979,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8972,7 +8988,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8981,7 +8997,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8990,7 +9006,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8999,7 +9015,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9008,7 +9024,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9017,7 +9033,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9026,7 +9042,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9035,7 +9051,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9044,7 +9060,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9053,7 +9069,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9062,7 +9078,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9071,7 +9087,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9080,7 +9096,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9089,7 +9105,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9098,7 +9114,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9107,7 +9123,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9116,7 +9132,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9125,7 +9141,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9134,7 +9150,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9143,7 +9159,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9152,7 +9168,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9161,7 +9177,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
+++ b/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91981974-5A03-4D42-BC16-2B43B96939CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -655,6 +656,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -667,20 +677,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,7 +1378,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1421,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1485,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1545,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1611,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1674,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1772,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1831,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1896,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1939,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2014,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2200,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2266,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2324,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2390,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2446,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2521,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2564,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2630,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2686,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2784,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2847,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2896,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2912,25 +2913,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2942,25 +2943,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2972,13 +2973,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2987,14 +2988,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3298,7 +3299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3308,7 +3309,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3316,34 +3317,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3645" topLeftCell="A69" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="3648" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3355,16 +3356,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3373,18 +3374,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="59">
         <v>40787</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3395,16 +3396,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3412,7 +3413,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3425,24 +3426,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3486,7 +3487,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.25</v>
+        <v>58.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3496,12 +3497,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3523,7 +3524,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3543,7 +3544,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3563,7 +3564,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3609,7 +3610,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3629,7 +3630,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3649,7 +3650,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3669,7 +3670,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3689,7 +3690,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3709,7 +3710,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3729,7 +3730,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3749,7 +3750,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3773,7 +3774,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3791,7 +3792,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3811,7 +3812,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3831,7 +3832,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3851,7 +3852,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3871,7 +3872,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3891,7 +3892,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3911,7 +3912,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3931,7 +3932,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3941,7 +3942,9 @@
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>1</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
@@ -3955,7 +3958,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3995,7 +3998,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4043,7 +4046,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4061,7 +4064,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4105,7 +4108,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4151,7 +4154,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4171,7 +4174,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4191,7 +4194,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4211,7 +4214,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4255,7 +4258,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4275,7 +4278,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4295,7 +4298,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4319,7 +4322,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4337,7 +4340,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4357,7 +4360,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4377,7 +4380,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4397,7 +4400,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4417,7 +4420,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4437,7 +4440,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4457,7 +4460,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4477,7 +4480,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4497,7 +4500,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4517,7 +4520,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4537,7 +4540,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4557,7 +4560,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4581,7 +4584,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4599,7 +4602,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4619,7 +4622,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4639,19 +4642,15 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39">
-        <v>1</v>
-      </c>
+      <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4661,11 +4660,9 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="49">
-        <v>44638</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="49"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4685,7 +4682,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4705,7 +4702,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4725,7 +4722,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4745,7 +4742,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4765,7 +4762,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4785,7 +4782,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4805,7 +4802,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4825,7 +4822,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4851,7 +4848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="51" t="s">
         <v>47</v>
       </c>
@@ -4869,9 +4866,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4889,9 +4886,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4909,9 +4906,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>63</v>
@@ -4935,10 +4932,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <f>EDATE(A78,1)</f>
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4956,10 +4952,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <f>EDATE(A79,1)</f>
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4977,24 +4972,30 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -5009,8 +5010,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -5025,8 +5028,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5041,8 +5046,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5057,8 +5064,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5073,8 +5082,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5089,8 +5100,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5105,8 +5118,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5121,8 +5136,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5137,8 +5154,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5153,8 +5172,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5169,8 +5190,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45473</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5185,8 +5208,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45504</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5201,8 +5226,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45535</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5217,8 +5244,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45565</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5233,8 +5262,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45596</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5249,8 +5280,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45626</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5265,8 +5298,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45657</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5281,8 +5316,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45688</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5297,8 +5334,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45716</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5313,8 +5352,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45747</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5329,8 +5370,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45777</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5345,8 +5388,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45808</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5361,8 +5406,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45838</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5377,8 +5424,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45869</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5393,8 +5442,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45900</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5409,8 +5460,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45930</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5425,8 +5478,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45961</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5441,8 +5496,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45991</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5457,7 +5514,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5473,7 +5530,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5489,7 +5546,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5505,7 +5562,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5521,7 +5578,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5537,7 +5594,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5553,7 +5610,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5569,7 +5626,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5585,7 +5642,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5601,7 +5658,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5617,7 +5674,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5633,7 +5690,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5649,7 +5706,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5665,7 +5722,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5681,7 +5738,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5697,7 +5754,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5713,7 +5770,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="15"/>
       <c r="C127" s="42"/>
@@ -5731,23 +5788,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5770,34 +5827,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675" topLeftCell="A28" activePane="bottomLeft"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3672" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5810,16 +5867,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5831,19 +5888,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="59">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>40787</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5855,19 +5912,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="str">
+      <c r="F4" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5875,7 +5932,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5888,24 +5945,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5940,7 +5997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5949,7 +6006,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.957999999999998</v>
+        <v>11.957999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5964,7 +6021,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -5986,7 +6043,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43221</v>
       </c>
@@ -6010,7 +6067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -6028,7 +6085,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43678</v>
       </c>
@@ -6052,7 +6109,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43770</v>
       </c>
@@ -6076,7 +6133,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -6094,7 +6151,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43862</v>
       </c>
@@ -6118,7 +6175,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6140,7 +6197,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -6162,7 +6219,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43891</v>
       </c>
@@ -6186,7 +6243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44075</v>
       </c>
@@ -6210,7 +6267,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44105</v>
       </c>
@@ -6234,7 +6291,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
@@ -6252,7 +6309,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44378</v>
       </c>
@@ -6276,7 +6333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44409</v>
       </c>
@@ -6300,7 +6357,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>46</v>
       </c>
@@ -6318,7 +6375,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44743</v>
       </c>
@@ -6342,7 +6399,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44774</v>
       </c>
@@ -6364,7 +6421,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>64</v>
@@ -6384,7 +6441,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44805</v>
       </c>
@@ -6408,7 +6465,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -6430,7 +6487,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -6450,7 +6507,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44835</v>
       </c>
@@ -6474,7 +6531,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>47</v>
       </c>
@@ -6492,7 +6549,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44927</v>
       </c>
@@ -6516,33 +6573,33 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>1</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="49">
-        <v>45036</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>54</v>
@@ -6561,12 +6618,12 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="49">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>54</v>
@@ -6585,13 +6642,15 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="49">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="40">
+        <v>45078</v>
+      </c>
       <c r="B38" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -6602,17 +6661,19 @@
         <v/>
       </c>
       <c r="H38" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="49">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
@@ -6621,12 +6682,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="39">
+        <v>2</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6642,7 +6707,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6658,7 +6723,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6674,7 +6739,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6690,7 +6755,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6706,7 +6771,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6722,7 +6787,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6738,7 +6803,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6754,7 +6819,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6770,7 +6835,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6786,7 +6851,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6802,7 +6867,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6818,7 +6883,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6834,7 +6899,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6850,7 +6915,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6866,7 +6931,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6882,7 +6947,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6898,7 +6963,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6914,7 +6979,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6930,7 +6995,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6946,7 +7011,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6962,7 +7027,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6978,7 +7043,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6994,7 +7059,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7010,7 +7075,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7026,7 +7091,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7042,7 +7107,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7058,7 +7123,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7074,7 +7139,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7090,7 +7155,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7106,7 +7171,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7122,7 +7187,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7138,7 +7203,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7154,7 +7219,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7170,7 +7235,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7186,7 +7251,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7202,7 +7267,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7218,7 +7283,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7234,7 +7299,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7250,7 +7315,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7266,7 +7331,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7282,7 +7347,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7298,7 +7363,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7314,7 +7379,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7330,7 +7395,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7346,7 +7411,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7362,7 +7427,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7378,7 +7443,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7394,7 +7459,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7410,7 +7475,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7426,7 +7491,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7442,7 +7507,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7458,7 +7523,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7474,7 +7539,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7490,7 +7555,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7506,7 +7571,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7522,7 +7587,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7538,7 +7603,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7554,7 +7619,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7570,7 +7635,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7586,7 +7651,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7602,7 +7667,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7618,7 +7683,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7634,7 +7699,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7650,7 +7715,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7666,7 +7731,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7682,7 +7747,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7698,7 +7763,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7714,7 +7779,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7730,7 +7795,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7746,7 +7811,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7762,7 +7827,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7778,7 +7843,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7794,7 +7859,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7810,7 +7875,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7826,7 +7891,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7842,7 +7907,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7858,7 +7923,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7874,7 +7939,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7890,7 +7955,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7906,7 +7971,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7922,7 +7987,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7938,7 +8003,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7954,7 +8019,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7970,7 +8035,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7986,7 +8051,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8002,7 +8067,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8018,7 +8083,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8034,7 +8099,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8050,21 +8115,37 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="43"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="41"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="43"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8082,10 +8163,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8108,7 +8189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8116,21 +8197,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -8143,7 +8224,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8172,7 +8253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>19.957999999999998</v>
       </c>
@@ -8196,17 +8277,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8227,7 +8308,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8254,7 +8335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8280,7 +8361,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8306,7 +8387,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8332,7 +8413,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8358,7 +8439,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8384,7 +8465,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8410,7 +8491,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8436,7 +8517,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8456,7 +8537,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8476,7 +8557,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8496,7 +8577,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8517,7 +8598,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8538,7 +8619,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8559,7 +8640,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8580,7 +8661,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8601,7 +8682,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8622,7 +8703,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8643,7 +8724,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8664,7 +8745,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8685,7 +8766,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8706,7 +8787,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8727,7 +8808,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8748,7 +8829,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8769,7 +8850,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8790,7 +8871,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8811,7 +8892,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8832,7 +8913,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8853,7 +8934,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8874,7 +8955,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8895,7 +8976,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8916,7 +8997,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8925,7 +9006,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8934,7 +9015,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8943,7 +9024,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8952,7 +9033,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8961,7 +9042,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8970,7 +9051,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8979,7 +9060,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8988,7 +9069,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8997,7 +9078,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9006,7 +9087,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9015,7 +9096,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9024,7 +9105,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9033,7 +9114,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9042,7 +9123,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9051,7 +9132,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9060,7 +9141,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9069,7 +9150,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9078,7 +9159,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9087,7 +9168,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9096,7 +9177,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9105,7 +9186,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9114,7 +9195,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9123,7 +9204,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9132,7 +9213,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9141,7 +9222,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9150,7 +9231,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9159,7 +9240,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9168,7 +9249,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9177,7 +9258,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
+++ b/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91981974-5A03-4D42-BC16-2B43B96939CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C0AA9-43B5-47D1-A109-0EE2055AE939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>6/7-8/2023</t>
+  </si>
+  <si>
+    <t>GRAD 7/13/2023</t>
   </si>
 </sst>
 </file>
@@ -656,15 +659,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -677,11 +671,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2913,7 +2916,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K127" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K128" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
@@ -3321,12 +3324,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K127"/>
+  <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3648" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="3648" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3356,14 +3359,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3374,16 +3377,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="56">
         <v>40787</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3396,14 +3399,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3429,18 +3432,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3487,7 +3490,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.5</v>
+        <v>56.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4849,12 +4852,14 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="20"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>2</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
@@ -4867,19 +4872,17 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40">
-        <v>44957</v>
+      <c r="A76" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4888,7 +4891,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4908,17 +4911,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>63</v>
-      </c>
+        <v>44985</v>
+      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39">
-        <v>2</v>
-      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -4928,19 +4927,21 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B79" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>2</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -4950,11 +4951,13 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4974,7 +4977,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4994,16 +4997,18 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5012,9 +5017,11 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B83" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -5026,11 +5033,13 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5048,7 +5057,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5066,7 +5075,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5084,7 +5093,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5102,7 +5111,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5120,7 +5129,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5138,7 +5147,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5156,7 +5165,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5174,7 +5183,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5192,7 +5201,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5210,7 +5219,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5228,7 +5237,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5246,7 +5255,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5264,7 +5273,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5282,7 +5291,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5300,7 +5309,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5318,7 +5327,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5336,7 +5345,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5354,7 +5363,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5372,7 +5381,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5390,7 +5399,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5408,7 +5417,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5426,7 +5435,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5444,7 +5453,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5462,7 +5471,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5480,7 +5489,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5498,7 +5507,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5515,7 +5524,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45991</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5771,34 +5782,50 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="41"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="43"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="43"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="15"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="41"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="43"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5836,7 +5863,7 @@
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3672" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5867,14 +5894,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5888,17 +5915,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="56">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>40787</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5912,17 +5939,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="str">
+      <c r="F4" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5948,18 +5975,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6692,7 +6719,9 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45110</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>

--- a/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
+++ b/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C0AA9-43B5-47D1-A109-0EE2055AE939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F29DBD-D54C-42E9-90E8-57958B21D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3329,7 +3329,7 @@
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="3648" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3490,7 +3490,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.5</v>
+        <v>56.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3500,7 +3500,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4011,7 +4011,9 @@
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39">
+        <v>1</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
@@ -5022,13 +5024,15 @@
       <c r="B83" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5041,7 +5045,9 @@
       <c r="A84" s="40">
         <v>45169</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -5053,7 +5059,9 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="49">
+        <v>45140</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
@@ -5861,9 +5869,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="3672" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6043,7 +6051,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6720,9 +6728,11 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>45110</v>
-      </c>
-      <c r="B40" s="20"/>
+        <v>45135</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
       <c r="E40" s="9"/>
@@ -6731,10 +6741,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H40" s="39"/>
+      <c r="H40" s="39">
+        <v>1</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="49">
+        <v>45134</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>

--- a/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
+++ b/NEW HR/DONE/DIMAILIG, ARLYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F29DBD-D54C-42E9-90E8-57958B21D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -268,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1381,7 +1380,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1423,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1487,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1547,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1613,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1676,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1774,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1833,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1898,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1941,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2016,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2202,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2268,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2326,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2392,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2448,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2523,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2566,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2632,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2688,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2786,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2849,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2898,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2916,25 +2915,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K128" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K128" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2946,25 +2945,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2976,13 +2975,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2991,14 +2990,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3302,7 +3301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3312,7 +3311,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3320,34 +3319,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3648" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="3645" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3368,7 +3367,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3388,7 +3387,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3408,7 +3407,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3416,7 +3415,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3429,7 +3428,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="61" t="s">
@@ -3446,7 +3445,7 @@
       <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3490,7 +3489,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.75</v>
+        <v>58</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3500,12 +3499,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3527,7 +3526,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3547,7 +3546,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3567,7 +3566,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3613,7 +3612,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3633,7 +3632,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3653,7 +3652,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3673,7 +3672,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3693,7 +3692,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3713,7 +3712,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3733,7 +3732,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3777,7 +3776,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3795,7 +3794,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3815,7 +3814,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3835,7 +3834,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3855,7 +3854,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3875,7 +3874,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3895,7 +3894,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3915,7 +3914,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3935,7 +3934,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3961,7 +3960,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3981,7 +3980,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4001,7 +4000,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4051,7 +4050,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4069,7 +4068,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4159,7 +4158,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4179,7 +4178,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4199,7 +4198,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4219,7 +4218,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4263,7 +4262,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4283,7 +4282,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4303,7 +4302,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4327,7 +4326,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4345,7 +4344,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4365,7 +4364,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4385,7 +4384,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4405,7 +4404,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4425,7 +4424,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4445,7 +4444,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4465,7 +4464,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4485,7 +4484,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4505,7 +4504,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4525,7 +4524,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4545,7 +4544,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4565,7 +4564,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4589,7 +4588,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4607,7 +4606,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4627,7 +4626,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4647,7 +4646,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4667,7 +4666,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4687,7 +4686,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4707,7 +4706,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4727,7 +4726,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4747,7 +4746,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4767,7 +4766,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4787,7 +4786,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4807,7 +4806,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>63</v>
@@ -4873,7 +4872,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="51" t="s">
         <v>47</v>
       </c>
@@ -4891,7 +4890,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44957</v>
       </c>
@@ -4911,7 +4910,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44985</v>
       </c>
@@ -4931,7 +4930,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45016</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45046</v>
       </c>
@@ -4977,7 +4976,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45077</v>
       </c>
@@ -4997,7 +4996,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45107</v>
       </c>
@@ -5017,7 +5016,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45138</v>
       </c>
@@ -5041,20 +5040,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45169</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5063,7 +5064,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45199</v>
       </c>
@@ -5081,7 +5082,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45230</v>
       </c>
@@ -5099,7 +5100,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45260</v>
       </c>
@@ -5117,7 +5118,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45291</v>
       </c>
@@ -5135,7 +5136,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45322</v>
       </c>
@@ -5153,7 +5154,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45351</v>
       </c>
@@ -5171,7 +5172,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45382</v>
       </c>
@@ -5189,7 +5190,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45412</v>
       </c>
@@ -5207,7 +5208,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45443</v>
       </c>
@@ -5225,7 +5226,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45473</v>
       </c>
@@ -5243,7 +5244,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45504</v>
       </c>
@@ -5261,7 +5262,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45535</v>
       </c>
@@ -5279,7 +5280,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45565</v>
       </c>
@@ -5297,7 +5298,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45596</v>
       </c>
@@ -5315,7 +5316,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45626</v>
       </c>
@@ -5333,7 +5334,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45657</v>
       </c>
@@ -5351,7 +5352,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45688</v>
       </c>
@@ -5369,7 +5370,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45716</v>
       </c>
@@ -5387,7 +5388,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45747</v>
       </c>
@@ -5405,7 +5406,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45777</v>
       </c>
@@ -5423,7 +5424,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45808</v>
       </c>
@@ -5441,7 +5442,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45838</v>
       </c>
@@ -5459,7 +5460,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45869</v>
       </c>
@@ -5477,7 +5478,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45900</v>
       </c>
@@ -5495,7 +5496,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45930</v>
       </c>
@@ -5513,7 +5514,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45961</v>
       </c>
@@ -5531,7 +5532,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45991</v>
       </c>
@@ -5549,7 +5550,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5565,7 +5566,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5581,7 +5582,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5597,7 +5598,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5613,7 +5614,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5629,7 +5630,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5645,7 +5646,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5661,7 +5662,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5677,7 +5678,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5693,7 +5694,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5709,7 +5710,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5725,7 +5726,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5741,7 +5742,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5757,7 +5758,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5773,7 +5774,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5789,7 +5790,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5805,7 +5806,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="15"/>
       <c r="C128" s="42"/>
@@ -5836,10 +5837,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5862,34 +5863,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A31" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3675" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5911,7 +5912,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5935,7 +5936,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5959,7 +5960,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5967,7 +5968,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5980,7 +5981,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="61" t="s">
@@ -5997,7 +5998,7 @@
       <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6051,12 +6052,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6078,7 +6079,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43221</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -6120,7 +6121,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43678</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43770</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -6186,7 +6187,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43862</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6232,7 +6233,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -6254,7 +6255,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43891</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44075</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44105</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
@@ -6344,7 +6345,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44378</v>
       </c>
@@ -6368,7 +6369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44409</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>46</v>
       </c>
@@ -6410,7 +6411,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44743</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44774</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>64</v>
@@ -6476,7 +6477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44805</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -6522,7 +6523,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -6542,7 +6543,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44835</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>47</v>
       </c>
@@ -6584,7 +6585,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44927</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44986</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>45017</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45047</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45078</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>59</v>
@@ -6726,7 +6727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>45135</v>
       </c>
@@ -6750,9 +6751,13 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
@@ -6761,14 +6766,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="39">
+        <v>1</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="20"/>
+      <c r="K41" s="49">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
@@ -6777,12 +6790,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="39">
+        <v>1</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="49">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6798,7 +6815,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6814,7 +6831,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6830,7 +6847,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6846,7 +6863,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6862,7 +6879,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6878,7 +6895,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6894,7 +6911,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6910,7 +6927,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6926,7 +6943,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6942,7 +6959,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6958,7 +6975,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6974,7 +6991,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6990,7 +7007,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7006,7 +7023,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7022,7 +7039,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7038,7 +7055,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7054,7 +7071,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7070,7 +7087,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7086,7 +7103,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7102,7 +7119,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7118,7 +7135,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7134,7 +7151,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7150,7 +7167,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7166,7 +7183,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7182,7 +7199,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7198,7 +7215,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7214,7 +7231,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7230,7 +7247,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7246,7 +7263,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7262,7 +7279,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7278,7 +7295,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7294,7 +7311,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7310,7 +7327,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7326,7 +7343,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7342,7 +7359,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7358,7 +7375,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7374,7 +7391,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7390,7 +7407,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7406,7 +7423,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7422,7 +7439,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7438,7 +7455,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7454,7 +7471,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7470,7 +7487,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7486,7 +7503,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7502,7 +7519,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7518,7 +7535,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7534,7 +7551,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7550,7 +7567,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7566,7 +7583,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7582,7 +7599,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7598,7 +7615,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7614,7 +7631,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7630,7 +7647,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7646,7 +7663,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7662,7 +7679,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7678,7 +7695,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7694,7 +7711,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7710,7 +7727,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7726,7 +7743,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7742,7 +7759,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7758,7 +7775,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7774,7 +7791,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7790,7 +7807,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7806,7 +7823,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7822,7 +7839,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7838,7 +7855,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7854,7 +7871,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7870,7 +7887,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7886,7 +7903,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7902,7 +7919,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7918,7 +7935,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7934,7 +7951,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7950,7 +7967,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7966,7 +7983,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7982,7 +7999,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7998,7 +8015,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8014,7 +8031,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8030,7 +8047,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8046,7 +8063,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8062,7 +8079,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8078,7 +8095,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8094,7 +8111,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8110,7 +8127,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8126,7 +8143,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8142,7 +8159,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8158,7 +8175,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8174,7 +8191,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8206,10 +8223,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8232,7 +8249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8240,21 +8257,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -8267,7 +8284,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8296,7 +8313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>19.957999999999998</v>
       </c>
@@ -8320,17 +8337,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8351,7 +8368,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8378,7 +8395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8404,7 +8421,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8430,7 +8447,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8456,7 +8473,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8482,7 +8499,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8508,7 +8525,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8534,7 +8551,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8560,7 +8577,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8580,7 +8597,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8600,7 +8617,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8620,7 +8637,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8641,7 +8658,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8662,7 +8679,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8683,7 +8700,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8704,7 +8721,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8725,7 +8742,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8746,7 +8763,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8767,7 +8784,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8788,7 +8805,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8809,7 +8826,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8830,7 +8847,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8851,7 +8868,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8872,7 +8889,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8893,7 +8910,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8914,7 +8931,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8935,7 +8952,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8956,7 +8973,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8977,7 +8994,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8998,7 +9015,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9019,7 +9036,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9040,7 +9057,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9049,7 +9066,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9058,7 +9075,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9067,7 +9084,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9076,7 +9093,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9085,7 +9102,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9094,7 +9111,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9103,7 +9120,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9112,7 +9129,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9121,7 +9138,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9130,7 +9147,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9139,7 +9156,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9148,7 +9165,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9157,7 +9174,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9166,7 +9183,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9175,7 +9192,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9184,7 +9201,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9193,7 +9210,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9202,7 +9219,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9211,7 +9228,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9220,7 +9237,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9229,7 +9246,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9238,7 +9255,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9247,7 +9264,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9256,7 +9273,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9265,7 +9282,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9274,7 +9291,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9283,7 +9300,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9292,7 +9309,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9301,7 +9318,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
